--- a/uploads/reports/09 Ежедневный отчёт Сентябрь Власенко.xlsx
+++ b/uploads/reports/09 Ежедневный отчёт Сентябрь Власенко.xlsx
@@ -11,42 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Активность</t>
   </si>
   <si>
+    <t>Уделенные часы</t>
+  </si>
+  <si>
     <t>Дата</t>
   </si>
   <si>
-    <t>Уделенные часы</t>
-  </si>
-  <si>
-    <t>rewr</t>
+    <t>wfewefwefwe</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>14 сентября 2023 г.</t>
   </si>
   <si>
-    <t>2023-09-13T21:00:00.000Z</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>e32</t>
+    <t>fwefwe</t>
   </si>
   <si>
     <t>В течение рабочего дня</t>
   </si>
   <si>
-    <t>gerge</t>
-  </si>
-  <si>
-    <t>15 сентября 2023 г.</t>
-  </si>
-  <si>
-    <t>2023-09-14T21:00:00.000Z</t>
+    <t>311213dgf</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22 сентября 2023 г.</t>
   </si>
 </sst>
 </file>
@@ -423,16 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,55 +439,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
